--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H2">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N2">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O2">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P2">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q2">
-        <v>45.71203878442088</v>
+        <v>76.626201061475</v>
       </c>
       <c r="R2">
-        <v>411.408349059788</v>
+        <v>689.635809553275</v>
       </c>
       <c r="S2">
-        <v>0.07824690211083705</v>
+        <v>0.2300942050454571</v>
       </c>
       <c r="T2">
-        <v>0.07824690211083705</v>
+        <v>0.2300942050454571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H3">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>21.393154</v>
       </c>
       <c r="O3">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P3">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q3">
-        <v>37.70082964285577</v>
+        <v>54.34057219911666</v>
       </c>
       <c r="R3">
-        <v>339.307466785702</v>
+        <v>489.06514979205</v>
       </c>
       <c r="S3">
-        <v>0.06453383408414633</v>
+        <v>0.1631746137569818</v>
       </c>
       <c r="T3">
-        <v>0.06453383408414633</v>
+        <v>0.1631746137569818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H4">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I4">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J4">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N4">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O4">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P4">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q4">
-        <v>8.096766305241445</v>
+        <v>19.98932503349166</v>
       </c>
       <c r="R4">
-        <v>72.87089674717301</v>
+        <v>179.903925301425</v>
       </c>
       <c r="S4">
-        <v>0.01385951922836726</v>
+        <v>0.0600242187301773</v>
       </c>
       <c r="T4">
-        <v>0.01385951922836726</v>
+        <v>0.0600242187301773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H5">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I5">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J5">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N5">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O5">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P5">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q5">
-        <v>118.8774697110734</v>
+        <v>46.20537489663332</v>
       </c>
       <c r="R5">
-        <v>1069.897227399661</v>
+        <v>415.8483740697</v>
       </c>
       <c r="S5">
-        <v>0.2034867396646615</v>
+        <v>0.138746131980871</v>
       </c>
       <c r="T5">
-        <v>0.2034867396646614</v>
+        <v>0.138746131980871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H6">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I6">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J6">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N6">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O6">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P6">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q6">
-        <v>3.248837192370111</v>
+        <v>4.037302977933333</v>
       </c>
       <c r="R6">
-        <v>29.239534731331</v>
+        <v>36.3357268014</v>
       </c>
       <c r="S6">
-        <v>0.005561148715424798</v>
+        <v>0.01212326862570087</v>
       </c>
       <c r="T6">
-        <v>0.005561148715424798</v>
+        <v>0.01212326862570087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H7">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I7">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J7">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N7">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O7">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P7">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q7">
-        <v>24.43238488821745</v>
+        <v>18.08265602574166</v>
       </c>
       <c r="R7">
-        <v>219.891463993957</v>
+        <v>162.743904231675</v>
       </c>
       <c r="S7">
-        <v>0.04182177123401879</v>
+        <v>0.05429884694421235</v>
       </c>
       <c r="T7">
-        <v>0.04182177123401879</v>
+        <v>0.05429884694421235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.107504</v>
       </c>
       <c r="I8">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J8">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N8">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O8">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P8">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q8">
-        <v>26.24891538070044</v>
+        <v>30.52704496325867</v>
       </c>
       <c r="R8">
-        <v>236.240238426304</v>
+        <v>274.743404669328</v>
       </c>
       <c r="S8">
-        <v>0.04493119027124427</v>
+        <v>0.09166702832589466</v>
       </c>
       <c r="T8">
-        <v>0.04493119027124428</v>
+        <v>0.09166702832589467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.107504</v>
       </c>
       <c r="I9">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J9">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>21.393154</v>
       </c>
       <c r="O9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P9">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q9">
         <v>21.64869284751289</v>
@@ -1013,10 +1013,10 @@
         <v>194.838235627616</v>
       </c>
       <c r="S9">
-        <v>0.03705682780975045</v>
+        <v>0.06500699110772105</v>
       </c>
       <c r="T9">
-        <v>0.03705682780975045</v>
+        <v>0.06500699110772107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>9.107504</v>
       </c>
       <c r="I10">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J10">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N10">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O10">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P10">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q10">
-        <v>4.649351445598223</v>
+        <v>7.963529649512889</v>
       </c>
       <c r="R10">
-        <v>41.84416301038401</v>
+        <v>71.67176684561601</v>
       </c>
       <c r="S10">
-        <v>0.007958458146185083</v>
+        <v>0.023912995798794</v>
       </c>
       <c r="T10">
-        <v>0.007958458146185085</v>
+        <v>0.023912995798794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.107504</v>
       </c>
       <c r="I11">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J11">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N11">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O11">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P11">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q11">
-        <v>68.26220676425422</v>
+        <v>18.40771873686044</v>
       </c>
       <c r="R11">
-        <v>614.359860878288</v>
+        <v>165.669468631744</v>
       </c>
       <c r="S11">
-        <v>0.1168468165627451</v>
+        <v>0.05527494970108517</v>
       </c>
       <c r="T11">
-        <v>0.1168468165627451</v>
+        <v>0.05527494970108517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>9.107504</v>
       </c>
       <c r="I12">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J12">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N12">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O12">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P12">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q12">
-        <v>1.865557844627556</v>
+        <v>1.608417588636444</v>
       </c>
       <c r="R12">
-        <v>16.790020601648</v>
+        <v>14.475758297728</v>
       </c>
       <c r="S12">
-        <v>0.003193340877642629</v>
+        <v>0.00482977834359194</v>
       </c>
       <c r="T12">
-        <v>0.003193340877642629</v>
+        <v>0.004829778343591941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.107504</v>
       </c>
       <c r="I13">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J13">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N13">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O13">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P13">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q13">
-        <v>14.02964340540622</v>
+        <v>7.203933457566221</v>
       </c>
       <c r="R13">
-        <v>126.266790648656</v>
+        <v>64.83540111809599</v>
       </c>
       <c r="S13">
-        <v>0.02401503331255713</v>
+        <v>0.02163206995984623</v>
       </c>
       <c r="T13">
-        <v>0.02401503331255713</v>
+        <v>0.02163206995984623</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H14">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I14">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J14">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.646358666666666</v>
+        <v>10.055569</v>
       </c>
       <c r="N14">
-        <v>25.939076</v>
+        <v>30.166707</v>
       </c>
       <c r="O14">
-        <v>0.1920122657718527</v>
+        <v>0.349442268297237</v>
       </c>
       <c r="P14">
-        <v>0.1920122657718527</v>
+        <v>0.3494422682972371</v>
       </c>
       <c r="Q14">
-        <v>40.21309877839867</v>
+        <v>9.218365788054335</v>
       </c>
       <c r="R14">
-        <v>361.9178890055881</v>
+        <v>82.96529209248901</v>
       </c>
       <c r="S14">
-        <v>0.06883417338977138</v>
+        <v>0.02768103492588532</v>
       </c>
       <c r="T14">
-        <v>0.06883417338977139</v>
+        <v>0.02768103492588532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H15">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I15">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J15">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>21.393154</v>
       </c>
       <c r="O15">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="P15">
-        <v>0.1583613838652608</v>
+        <v>0.2478120087748427</v>
       </c>
       <c r="Q15">
-        <v>33.16559984571133</v>
+        <v>6.537336638439778</v>
       </c>
       <c r="R15">
-        <v>298.490398611402</v>
+        <v>58.836029745958</v>
       </c>
       <c r="S15">
-        <v>0.05677072197136402</v>
+        <v>0.01963040391013985</v>
       </c>
       <c r="T15">
-        <v>0.05677072197136403</v>
+        <v>0.01963040391013985</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H16">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I16">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J16">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.531490333333333</v>
+        <v>2.623176333333333</v>
       </c>
       <c r="N16">
-        <v>4.594471</v>
+        <v>7.869529</v>
       </c>
       <c r="O16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692827</v>
       </c>
       <c r="P16">
-        <v>0.03401026261433021</v>
+        <v>0.09115831118692828</v>
       </c>
       <c r="Q16">
-        <v>7.122763978080334</v>
+        <v>2.404776792564778</v>
       </c>
       <c r="R16">
-        <v>64.10487580272301</v>
+        <v>21.642991133083</v>
       </c>
       <c r="S16">
-        <v>0.01219228523977787</v>
+        <v>0.007221096657956979</v>
       </c>
       <c r="T16">
-        <v>0.01219228523977787</v>
+        <v>0.007221096657956979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H17">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I17">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J17">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.48548233333333</v>
+        <v>6.063478666666666</v>
       </c>
       <c r="N17">
-        <v>67.456447</v>
+        <v>18.190436</v>
       </c>
       <c r="O17">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="P17">
-        <v>0.4993418126917434</v>
+        <v>0.2107126646987263</v>
       </c>
       <c r="Q17">
-        <v>104.5770777051123</v>
+        <v>5.558647580996888</v>
       </c>
       <c r="R17">
-        <v>941.193699346011</v>
+        <v>50.027828228972</v>
       </c>
       <c r="S17">
-        <v>0.1790082564643368</v>
+        <v>0.01669158301677016</v>
       </c>
       <c r="T17">
-        <v>0.1790082564643368</v>
+        <v>0.01669158301677016</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H18">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I18">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J18">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.6145123333333333</v>
+        <v>0.5298106666666667</v>
       </c>
       <c r="N18">
-        <v>1.843537</v>
+        <v>1.589432</v>
       </c>
       <c r="O18">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524362</v>
       </c>
       <c r="P18">
-        <v>0.01364665867065751</v>
+        <v>0.01841151317524363</v>
       </c>
       <c r="Q18">
-        <v>2.858017590242333</v>
+        <v>0.4856998667848889</v>
       </c>
       <c r="R18">
-        <v>25.722158312181</v>
+        <v>4.371298801064</v>
       </c>
       <c r="S18">
-        <v>0.004892169077590079</v>
+        <v>0.001458466205950811</v>
       </c>
       <c r="T18">
-        <v>0.00489216907759008</v>
+        <v>0.001458466205950811</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H19">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I19">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J19">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.621346333333333</v>
+        <v>2.372966333333333</v>
       </c>
       <c r="N19">
-        <v>13.864039</v>
+        <v>7.118898999999999</v>
       </c>
       <c r="O19">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702208</v>
       </c>
       <c r="P19">
-        <v>0.1026276163861554</v>
+        <v>0.08246323386702209</v>
       </c>
       <c r="Q19">
-        <v>21.49328564265634</v>
+        <v>2.175398693341444</v>
       </c>
       <c r="R19">
-        <v>193.439570783907</v>
+        <v>19.578588240073</v>
       </c>
       <c r="S19">
-        <v>0.03679081183957951</v>
+        <v>0.006532316962963511</v>
       </c>
       <c r="T19">
-        <v>0.03679081183957952</v>
+        <v>0.006532316962963511</v>
       </c>
     </row>
   </sheetData>
